--- a/biology/Zoologie/Engoulevent_minime/Engoulevent_minime.xlsx
+++ b/biology/Zoologie/Engoulevent_minime/Engoulevent_minime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chordeiles acutipennis
 L'Engoulevent minime ou Engoulevent ronronneur (Chordeiles acutipennis) est une espèce d'oiseau de la famille des Caprimulgidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure environ 22 cm de longueur. Elle présente un plumage cryptique barré et rayé de gris et de brun avec une barre claire sur la gorge : blanche chez le mâle et chamois chez la femelle. Présentant la même différence sexuelle, une bande claire sur chaque aile à pointe noire est visible en vol[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure environ 22 cm de longueur. Elle présente un plumage cryptique barré et rayé de gris et de brun avec une barre claire sur la gorge : blanche chez le mâle et chamois chez la femelle. Présentant la même différence sexuelle, une bande claire sur chaque aile à pointe noire est visible en vol.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit du sud des États-Unis jusqu'au Brésil : Costa Rica...
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les milieux ouverts et buissonnants.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau chasse des insectes du crépuscule à l'aurore.
 </t>
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des sept sous-espèces suivantes (ordre phylogénique) :
 Chordeiles acutipennis texensis Lawrence, 1857 ;
